--- a/src/main/resources/model/奖学金.xlsx
+++ b/src/main/resources/model/奖学金.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>学习进步奖</t>
+  </si>
+  <si>
+    <t>所有奖学金包括：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -124,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,6 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -426,153 +431,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="20.25" customWidth="1"/>
+    <col min="12" max="12" width="19.875" customWidth="1"/>
+    <col min="13" max="13" width="21.375" customWidth="1"/>
+    <col min="14" max="14" width="15.25" customWidth="1"/>
+    <col min="15" max="16" width="17.875" customWidth="1"/>
+    <col min="17" max="17" width="15.875" customWidth="1"/>
+    <col min="18" max="18" width="13.75" customWidth="1"/>
+    <col min="19" max="19" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>1170299012</v>
+        <v>1150299070</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>1170299008</v>
+        <v>1150299070</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>1170299008</v>
+        <v>1150299070</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>1170299012</v>
+        <v>1150299070</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>1170299012</v>
+        <v>1150299070</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>1170299012</v>
+        <v>1150299070</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>1170299008</v>
+        <v>1150299070</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
-        <v>1170299008</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
-        <v>1170299012</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2">
-        <v>1170299008</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2">
-        <v>1170299012</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>1170299012</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
-        <v>1170299008</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2">
-        <v>1170299012</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2">
-        <v>1170299008</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
-        <v>1170299008</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="9" spans="1:19">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/model/奖学金.xlsx
+++ b/src/main/resources/model/奖学金.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,17 @@
   </si>
   <si>
     <t>所有奖学金包括：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5152235780</t>
+  </si>
+  <si>
+    <t>优秀学生二等奖学金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀学生三等奖学金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,6 +148,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -558,26 +572,36 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="2">
-        <v>1150299070</v>
+      <c r="A7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="2">
-        <v>1150299070</v>
+      <c r="A8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="1"/>
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="B10" s="1"/>
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="1"/>
@@ -593,12 +617,6 @@
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/model/奖学金.xlsx
+++ b/src/main/resources/model/奖学金.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>优秀学生三等奖学金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1150299001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +452,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -597,7 +601,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>

--- a/src/main/resources/model/奖学金.xlsx
+++ b/src/main/resources/model/奖学金.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,18 +82,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5152235780</t>
-  </si>
-  <si>
     <t>优秀学生二等奖学金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>优秀学生三等奖学金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1150299001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,9 +145,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -576,51 +566,28 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2">
+        <v>1150299070</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
+      <c r="A8" s="2">
+        <v>1150299070</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="2">
+        <v>1150299070</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/model/奖学金.xlsx
+++ b/src/main/resources/model/奖学金.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>优秀学生二等奖学金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优秀学生三等奖学金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -575,17 +571,121 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>1150299070</v>
+        <v>1150299071</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>1150299070</v>
+        <v>1150299071</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="2">
+        <v>1150299001</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="2">
+        <v>1150299001</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="2">
+        <v>1150299001</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="2">
+        <v>1150299001</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2">
+        <v>1150299001</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="2">
+        <v>1160299071</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="2">
+        <v>1160299071</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>1160299071</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>1160299070</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>1160299070</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>1160299070</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>1160299070</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>1160299070</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/model/奖学金.xlsx
+++ b/src/main/resources/model/奖学金.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="66">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,8 +82,145 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优秀学生二等奖学金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1150299071</t>
+  </si>
+  <si>
+    <t>1150299001</t>
+  </si>
+  <si>
+    <t>1150299078</t>
+  </si>
+  <si>
+    <t>1150299234</t>
+  </si>
+  <si>
+    <t>1150299222</t>
+  </si>
+  <si>
+    <t>1150299030</t>
+  </si>
+  <si>
+    <t>1150299113</t>
+  </si>
+  <si>
+    <t>1150299154</t>
+  </si>
+  <si>
+    <t>1150299009</t>
+  </si>
+  <si>
+    <t>1150299290</t>
+  </si>
+  <si>
+    <t>1150299301</t>
+  </si>
+  <si>
+    <t>1150299132</t>
+  </si>
+  <si>
+    <t>1160299213</t>
+  </si>
+  <si>
+    <t>1160299110</t>
+  </si>
+  <si>
+    <t>1160299212</t>
+  </si>
+  <si>
+    <t>1160299100</t>
+  </si>
+  <si>
+    <t>1160299001</t>
+  </si>
+  <si>
+    <t>1160299080</t>
+  </si>
+  <si>
+    <t>1160299077</t>
+  </si>
+  <si>
+    <t>1160299301</t>
+  </si>
+  <si>
+    <t>1160299142</t>
+  </si>
+  <si>
+    <t>1160299182</t>
+  </si>
+  <si>
+    <t>1160299199</t>
+  </si>
+  <si>
+    <t>1160299291</t>
+  </si>
+  <si>
+    <t>1160299293</t>
+  </si>
+  <si>
+    <t>1170299196</t>
+  </si>
+  <si>
+    <t>1170299108</t>
+  </si>
+  <si>
+    <t>1170299075</t>
+  </si>
+  <si>
+    <t>1170299255</t>
+  </si>
+  <si>
+    <t>1170299234</t>
+  </si>
+  <si>
+    <t>1170299154</t>
+  </si>
+  <si>
+    <t>1170299078</t>
+  </si>
+  <si>
+    <t>1170299182</t>
+  </si>
+  <si>
+    <t>1170299150</t>
+  </si>
+  <si>
+    <t>1170299089</t>
+  </si>
+  <si>
+    <t>1170299019</t>
+  </si>
+  <si>
+    <t>1170299060</t>
+  </si>
+  <si>
+    <t>1160299219</t>
+  </si>
+  <si>
+    <t>1160299111</t>
+  </si>
+  <si>
+    <t>1160299214</t>
+  </si>
+  <si>
+    <t>1160299109</t>
+  </si>
+  <si>
+    <t>1160299011</t>
+  </si>
+  <si>
+    <t>1160299088</t>
+  </si>
+  <si>
+    <t>1160299075</t>
+  </si>
+  <si>
+    <t>1160299281</t>
+  </si>
+  <si>
+    <t>1160299008</t>
+  </si>
+  <si>
+    <t>1170299158</t>
   </si>
 </sst>
 </file>
@@ -132,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +278,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -435,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230:A286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -522,171 +679,2304 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>1150299070</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="2">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5">
+        <v>1150299002</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5">
+        <v>1150299042</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5">
+        <v>1150299044</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5">
+        <v>1150299038</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5">
+        <v>1150299039</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5">
+        <v>1150299036</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5">
+        <v>1150299055</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5">
+        <v>1150299053</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5">
+        <v>1150299088</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="7">
         <v>1150299070</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="2">
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="7">
+        <v>1150299002</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="7">
+        <v>1150299042</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="7">
+        <v>1150299044</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="7">
+        <v>1150299038</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="7">
+        <v>1150299039</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="7">
+        <v>1150299036</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="7">
+        <v>1150299055</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="7">
+        <v>1150299053</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="7">
+        <v>1150299088</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="9">
         <v>1150299070</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="2">
+      <c r="B116" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="9">
+        <v>1150299002</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="9">
+        <v>1150299042</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="9">
+        <v>1150299044</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="9">
+        <v>1150299038</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="9">
+        <v>1150299039</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="9">
+        <v>1150299036</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="9">
+        <v>1150299055</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="9">
+        <v>1150299053</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="9">
+        <v>1150299088</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="11">
         <v>1150299070</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="2">
+      <c r="B173" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="11">
+        <v>1150299002</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="11">
+        <v>1150299042</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="11">
+        <v>1150299044</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="11">
+        <v>1150299038</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="11">
+        <v>1150299039</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="11">
+        <v>1150299036</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="11">
+        <v>1150299055</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="11">
+        <v>1150299053</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="11">
+        <v>1150299088</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="13">
         <v>1150299070</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="2">
-        <v>1150299070</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="231" spans="1:2">
+      <c r="A231" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="2">
-        <v>1150299071</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="2">
-        <v>1150299071</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="2">
-        <v>1150299001</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="2">
-        <v>1150299001</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="2">
-        <v>1150299001</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="2">
-        <v>1150299001</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="2">
-        <v>1150299001</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="232" spans="1:2">
+      <c r="A232" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="2">
-        <v>1160299071</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="2">
-        <v>1160299071</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
-        <v>1160299071</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
-        <v>1160299070</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
-        <v>1160299070</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
-        <v>1160299070</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
-        <v>1160299070</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
-        <v>1160299070</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="233" spans="1:2">
+      <c r="A233" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="13">
+        <v>1150299002</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="13">
+        <v>1150299042</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="13">
+        <v>1150299044</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="13">
+        <v>1150299038</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="13">
+        <v>1150299039</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="13">
+        <v>1150299036</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="13">
+        <v>1150299055</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="13">
+        <v>1150299053</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="13">
+        <v>1150299088</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
